--- a/Daily Schedule Excel Template-PT.xlsx
+++ b/Daily Schedule Excel Template-PT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSankiewicz\Desktop\Blog posts\Create An Excel Schedule Template in Minutes\4-Excel-Templates - PT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comercial\Desktop\cronograma de estudo mateus\planilha-agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9975" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>Column1</t>
   </si>
@@ -91,6 +91,33 @@
   <si>
     <t>Gerente de projeto</t>
   </si>
+  <si>
+    <t>ESCOLA</t>
+  </si>
+  <si>
+    <t>Igreja</t>
+  </si>
+  <si>
+    <t>Almoço/banho</t>
+  </si>
+  <si>
+    <t>TASK/STUDY ESCOLA</t>
+  </si>
+  <si>
+    <t>ESTUDAR TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>ENSAIAR MÚSICAS</t>
+  </si>
+  <si>
+    <t>SE ARRUMAR</t>
+  </si>
+  <si>
+    <t>Lazer</t>
+  </si>
+  <si>
+    <t>estudar musica</t>
+  </si>
 </sst>
 </file>
 
@@ -100,7 +127,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,8 +255,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +339,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -422,6 +483,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -436,7 +519,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -471,8 +554,25 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,9 +597,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -729,7 +826,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>704488</xdr:colOff>
+      <xdr:colOff>214630</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>482599</xdr:rowOff>
     </xdr:to>
@@ -811,7 +908,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>2108200</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>40724</xdr:rowOff>
+      <xdr:rowOff>40723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -889,7 +986,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2647001</xdr:colOff>
+      <xdr:colOff>1626465</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
@@ -1268,33 +1365,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:F38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" customWidth="1"/>
-    <col min="3" max="3" width="26.69921875" customWidth="1"/>
-    <col min="4" max="4" width="30.19921875" customWidth="1"/>
-    <col min="5" max="5" width="38.69921875" customWidth="1"/>
-    <col min="6" max="6" width="29.19921875" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="3" max="7" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:68" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1336,7 +1426,7 @@
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
     </row>
-    <row r="2" spans="1:68" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:68" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -1420,26 +1510,26 @@
       <c r="BO2" s="2"/>
       <c r="BP2" s="2"/>
     </row>
-    <row r="3" spans="1:68" ht="28.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:68" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1506,17 +1596,17 @@
       <c r="BO3" s="2"/>
       <c r="BP3" s="2"/>
     </row>
-    <row r="4" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="21">
         <v>0.29166666666666669</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1578,17 +1668,17 @@
       <c r="BO4" s="2"/>
       <c r="BP4" s="2"/>
     </row>
-    <row r="5" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>0.3125</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1650,17 +1740,17 @@
       <c r="BO5" s="2"/>
       <c r="BP5" s="2"/>
     </row>
-    <row r="6" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1722,17 +1812,17 @@
       <c r="BO6" s="2"/>
       <c r="BP6" s="2"/>
     </row>
-    <row r="7" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1794,17 +1884,17 @@
       <c r="BO7" s="2"/>
       <c r="BP7" s="2"/>
     </row>
-    <row r="8" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>0.375</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1866,17 +1956,19 @@
       <c r="BO8" s="2"/>
       <c r="BP8" s="2"/>
     </row>
-    <row r="9" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="22">
         <v>0.39583333333333398</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1938,17 +2030,17 @@
       <c r="BO9" s="2"/>
       <c r="BP9" s="2"/>
     </row>
-    <row r="10" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2010,17 +2102,17 @@
       <c r="BO10" s="2"/>
       <c r="BP10" s="2"/>
     </row>
-    <row r="11" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>0.4375</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2082,17 +2174,17 @@
       <c r="BO11" s="2"/>
       <c r="BP11" s="2"/>
     </row>
-    <row r="12" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>0.45833333333333398</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2154,17 +2246,17 @@
       <c r="BO12" s="2"/>
       <c r="BP12" s="2"/>
     </row>
-    <row r="13" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2226,17 +2318,19 @@
       <c r="BO13" s="2"/>
       <c r="BP13" s="2"/>
     </row>
-    <row r="14" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>0.5</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="24"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2298,16 +2392,18 @@
       <c r="BO14" s="2"/>
       <c r="BP14" s="2"/>
     </row>
-    <row r="15" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2370,16 +2466,22 @@
       <c r="BO15" s="2"/>
       <c r="BP15" s="2"/>
     </row>
-    <row r="16" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:68" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>24</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2442,16 +2544,26 @@
       <c r="BO16" s="2"/>
       <c r="BP16" s="2"/>
     </row>
-    <row r="17" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2514,16 +2626,26 @@
       <c r="BO17" s="2"/>
       <c r="BP17" s="2"/>
     </row>
-    <row r="18" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>0.58333333333333304</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2586,16 +2708,26 @@
       <c r="BO18" s="2"/>
       <c r="BP18" s="2"/>
     </row>
-    <row r="19" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>0.60416666666666696</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2658,16 +2790,26 @@
       <c r="BO19" s="2"/>
       <c r="BP19" s="2"/>
     </row>
-    <row r="20" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>0.625</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2730,16 +2872,26 @@
       <c r="BO20" s="2"/>
       <c r="BP20" s="2"/>
     </row>
-    <row r="21" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>0.64583333333333304</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2802,16 +2954,26 @@
       <c r="BO21" s="2"/>
       <c r="BP21" s="2"/>
     </row>
-    <row r="22" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>0.66666666666666696</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2874,16 +3036,26 @@
       <c r="BO22" s="2"/>
       <c r="BP22" s="2"/>
     </row>
-    <row r="23" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>0.6875</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2946,16 +3118,26 @@
       <c r="BO23" s="2"/>
       <c r="BP23" s="2"/>
     </row>
-    <row r="24" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>0.70833333333333304</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3018,16 +3200,26 @@
       <c r="BO24" s="2"/>
       <c r="BP24" s="2"/>
     </row>
-    <row r="25" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>0.72916666666666696</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3090,16 +3282,26 @@
       <c r="BO25" s="2"/>
       <c r="BP25" s="2"/>
     </row>
-    <row r="26" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>0.75</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>30</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3162,16 +3364,26 @@
       <c r="BO26" s="2"/>
       <c r="BP26" s="2"/>
     </row>
-    <row r="27" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:68" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>0.77083333333333304</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3234,16 +3446,26 @@
       <c r="BO27" s="2"/>
       <c r="BP27" s="2"/>
     </row>
-    <row r="28" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:68" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>0.79166666666666696</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3306,16 +3528,26 @@
       <c r="BO28" s="2"/>
       <c r="BP28" s="2"/>
     </row>
-    <row r="29" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:68" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>0.8125</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="C29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3378,16 +3610,26 @@
       <c r="BO29" s="2"/>
       <c r="BP29" s="2"/>
     </row>
-    <row r="30" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:68" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>0.83333333333333304</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="C30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -3450,16 +3692,26 @@
       <c r="BO30" s="2"/>
       <c r="BP30" s="2"/>
     </row>
-    <row r="31" spans="1:68" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:68" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>0.85416666666666696</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -3522,16 +3774,26 @@
       <c r="BO31" s="2"/>
       <c r="BP31" s="2"/>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:68" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>0.875</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="C32" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -3594,7 +3856,7 @@
       <c r="BO32" s="2"/>
       <c r="BP32" s="2"/>
     </row>
-    <row r="33" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3664,7 +3926,7 @@
       <c r="BO33" s="2"/>
       <c r="BP33" s="2"/>
     </row>
-    <row r="34" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3734,17 +3996,16 @@
       <c r="BO34" s="2"/>
       <c r="BP34" s="2"/>
     </row>
-    <row r="35" spans="1:68" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:68" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -3806,13 +4067,13 @@
       <c r="BO35" s="2"/>
       <c r="BP35" s="2"/>
     </row>
-    <row r="36" spans="1:68" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:68" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="11"/>
@@ -3876,7 +4137,7 @@
       <c r="BO36" s="2"/>
       <c r="BP36" s="2"/>
     </row>
-    <row r="37" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="33" t="s">
@@ -3948,9 +4209,9 @@
       <c r="BO37" s="2"/>
       <c r="BP37" s="2"/>
     </row>
-    <row r="38" spans="1:68" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:68" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
@@ -4018,13 +4279,13 @@
       <c r="BO38" s="2"/>
       <c r="BP38" s="2"/>
     </row>
-    <row r="39" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="2"/>
@@ -4088,13 +4349,13 @@
       <c r="BO39" s="2"/>
       <c r="BP39" s="2"/>
     </row>
-    <row r="40" spans="1:68" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:68" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="2"/>
@@ -4158,7 +4419,7 @@
       <c r="BO40" s="2"/>
       <c r="BP40" s="2"/>
     </row>
-    <row r="41" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -4228,7 +4489,7 @@
       <c r="BO41" s="2"/>
       <c r="BP41" s="2"/>
     </row>
-    <row r="42" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -4298,16 +4559,16 @@
       <c r="BO42" s="2"/>
       <c r="BP42" s="2"/>
     </row>
-    <row r="43" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="28" t="s">
+      <c r="F43" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="28"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="15"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -4370,14 +4631,14 @@
       <c r="BO43" s="2"/>
       <c r="BP43" s="2"/>
     </row>
-    <row r="44" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
       <c r="H44" s="15"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -4440,14 +4701,14 @@
       <c r="BO44" s="2"/>
       <c r="BP44" s="2"/>
     </row>
-    <row r="45" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
       <c r="H45" s="16"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4510,14 +4771,14 @@
       <c r="BO45" s="2"/>
       <c r="BP45" s="2"/>
     </row>
-    <row r="46" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
       <c r="H46" s="15"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -4580,14 +4841,14 @@
       <c r="BO46" s="2"/>
       <c r="BP46" s="2"/>
     </row>
-    <row r="47" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
       <c r="H47" s="15"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -4650,14 +4911,14 @@
       <c r="BO47" s="2"/>
       <c r="BP47" s="2"/>
     </row>
-    <row r="48" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
       <c r="H48" s="15"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -4720,14 +4981,14 @@
       <c r="BO48" s="2"/>
       <c r="BP48" s="2"/>
     </row>
-    <row r="49" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
       <c r="H49" s="15"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -4790,14 +5051,14 @@
       <c r="BO49" s="2"/>
       <c r="BP49" s="2"/>
     </row>
-    <row r="50" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
       <c r="H50" s="15"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -4860,14 +5121,14 @@
       <c r="BO50" s="2"/>
       <c r="BP50" s="2"/>
     </row>
-    <row r="51" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
       <c r="H51" s="15"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -4930,14 +5191,14 @@
       <c r="BO51" s="2"/>
       <c r="BP51" s="2"/>
     </row>
-    <row r="52" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
       <c r="H52" s="15"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -5000,14 +5261,14 @@
       <c r="BO52" s="2"/>
       <c r="BP52" s="2"/>
     </row>
-    <row r="53" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
       <c r="H53" s="15"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -5070,14 +5331,14 @@
       <c r="BO53" s="2"/>
       <c r="BP53" s="2"/>
     </row>
-    <row r="54" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
       <c r="H54" s="15"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -5140,7 +5401,7 @@
       <c r="BO54" s="2"/>
       <c r="BP54" s="2"/>
     </row>
-    <row r="55" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -5210,14 +5471,14 @@
       <c r="BO55" s="2"/>
       <c r="BP55" s="2"/>
     </row>
-    <row r="56" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
       <c r="H56" s="15"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -5280,7 +5541,7 @@
       <c r="BO56" s="2"/>
       <c r="BP56" s="2"/>
     </row>
-    <row r="57" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -5350,16 +5611,16 @@
       <c r="BO57" s="2"/>
       <c r="BP57" s="2"/>
     </row>
-    <row r="58" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="32"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="15"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -5422,14 +5683,14 @@
       <c r="BO58" s="2"/>
       <c r="BP58" s="2"/>
     </row>
-    <row r="59" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="15"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -5492,14 +5753,14 @@
       <c r="BO59" s="2"/>
       <c r="BP59" s="2"/>
     </row>
-    <row r="60" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="15"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -5562,14 +5823,14 @@
       <c r="BO60" s="2"/>
       <c r="BP60" s="2"/>
     </row>
-    <row r="61" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="15"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -5632,7 +5893,7 @@
       <c r="BO61" s="2"/>
       <c r="BP61" s="2"/>
     </row>
-    <row r="62" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -5702,7 +5963,7 @@
       <c r="BO62" s="2"/>
       <c r="BP62" s="2"/>
     </row>
-    <row r="63" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -5772,18 +6033,18 @@
       <c r="BO63" s="2"/>
       <c r="BP63" s="2"/>
     </row>
-    <row r="64" spans="1:68" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:68" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="19"/>
-      <c r="G64" s="24" t="s">
+      <c r="G64" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -5844,7 +6105,7 @@
       <c r="BO64" s="2"/>
       <c r="BP64" s="2"/>
     </row>
-    <row r="65" spans="1:68" ht="18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:68" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -5916,7 +6177,7 @@
       <c r="BO65" s="2"/>
       <c r="BP65" s="2"/>
     </row>
-    <row r="66" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -5986,7 +6247,7 @@
       <c r="BO66" s="2"/>
       <c r="BP66" s="2"/>
     </row>
-    <row r="67" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -6056,7 +6317,7 @@
       <c r="BO67" s="2"/>
       <c r="BP67" s="2"/>
     </row>
-    <row r="68" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -6126,7 +6387,7 @@
       <c r="BO68" s="2"/>
       <c r="BP68" s="2"/>
     </row>
-    <row r="69" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -6196,7 +6457,7 @@
       <c r="BO69" s="2"/>
       <c r="BP69" s="2"/>
     </row>
-    <row r="70" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -6266,7 +6527,7 @@
       <c r="BO70" s="2"/>
       <c r="BP70" s="2"/>
     </row>
-    <row r="71" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -6336,7 +6597,7 @@
       <c r="BO71" s="2"/>
       <c r="BP71" s="2"/>
     </row>
-    <row r="72" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -6406,7 +6667,7 @@
       <c r="BO72" s="2"/>
       <c r="BP72" s="2"/>
     </row>
-    <row r="73" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -6476,7 +6737,7 @@
       <c r="BO73" s="2"/>
       <c r="BP73" s="2"/>
     </row>
-    <row r="74" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -6546,7 +6807,7 @@
       <c r="BO74" s="2"/>
       <c r="BP74" s="2"/>
     </row>
-    <row r="75" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -6616,7 +6877,7 @@
       <c r="BO75" s="2"/>
       <c r="BP75" s="2"/>
     </row>
-    <row r="76" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -6686,7 +6947,7 @@
       <c r="BO76" s="2"/>
       <c r="BP76" s="2"/>
     </row>
-    <row r="77" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -6756,7 +7017,7 @@
       <c r="BO77" s="2"/>
       <c r="BP77" s="2"/>
     </row>
-    <row r="78" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -6826,7 +7087,7 @@
       <c r="BO78" s="2"/>
       <c r="BP78" s="2"/>
     </row>
-    <row r="79" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -6896,7 +7157,7 @@
       <c r="BO79" s="2"/>
       <c r="BP79" s="2"/>
     </row>
-    <row r="80" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -6966,7 +7227,7 @@
       <c r="BO80" s="2"/>
       <c r="BP80" s="2"/>
     </row>
-    <row r="81" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7036,7 +7297,7 @@
       <c r="BO81" s="2"/>
       <c r="BP81" s="2"/>
     </row>
-    <row r="82" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7106,7 +7367,7 @@
       <c r="BO82" s="2"/>
       <c r="BP82" s="2"/>
     </row>
-    <row r="83" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7176,7 +7437,7 @@
       <c r="BO83" s="2"/>
       <c r="BP83" s="2"/>
     </row>
-    <row r="84" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7246,7 +7507,7 @@
       <c r="BO84" s="2"/>
       <c r="BP84" s="2"/>
     </row>
-    <row r="85" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7316,7 +7577,7 @@
       <c r="BO85" s="2"/>
       <c r="BP85" s="2"/>
     </row>
-    <row r="86" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7386,7 +7647,7 @@
       <c r="BO86" s="2"/>
       <c r="BP86" s="2"/>
     </row>
-    <row r="87" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7456,7 +7717,7 @@
       <c r="BO87" s="2"/>
       <c r="BP87" s="2"/>
     </row>
-    <row r="88" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7526,7 +7787,7 @@
       <c r="BO88" s="2"/>
       <c r="BP88" s="2"/>
     </row>
-    <row r="89" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7596,7 +7857,7 @@
       <c r="BO89" s="2"/>
       <c r="BP89" s="2"/>
     </row>
-    <row r="90" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7666,7 +7927,7 @@
       <c r="BO90" s="2"/>
       <c r="BP90" s="2"/>
     </row>
-    <row r="91" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -7736,7 +7997,7 @@
       <c r="BO91" s="2"/>
       <c r="BP91" s="2"/>
     </row>
-    <row r="92" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -7806,7 +8067,7 @@
       <c r="BO92" s="2"/>
       <c r="BP92" s="2"/>
     </row>
-    <row r="93" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7876,7 +8137,7 @@
       <c r="BO93" s="2"/>
       <c r="BP93" s="2"/>
     </row>
-    <row r="94" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7946,7 +8207,7 @@
       <c r="BO94" s="2"/>
       <c r="BP94" s="2"/>
     </row>
-    <row r="95" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -8016,7 +8277,7 @@
       <c r="BO95" s="2"/>
       <c r="BP95" s="2"/>
     </row>
-    <row r="96" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -8086,7 +8347,7 @@
       <c r="BO96" s="2"/>
       <c r="BP96" s="2"/>
     </row>
-    <row r="97" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -8156,7 +8417,7 @@
       <c r="BO97" s="2"/>
       <c r="BP97" s="2"/>
     </row>
-    <row r="98" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -8226,7 +8487,7 @@
       <c r="BO98" s="2"/>
       <c r="BP98" s="2"/>
     </row>
-    <row r="99" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -8296,7 +8557,7 @@
       <c r="BO99" s="2"/>
       <c r="BP99" s="2"/>
     </row>
-    <row r="100" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -8366,7 +8627,7 @@
       <c r="BO100" s="2"/>
       <c r="BP100" s="2"/>
     </row>
-    <row r="101" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8436,7 +8697,7 @@
       <c r="BO101" s="2"/>
       <c r="BP101" s="2"/>
     </row>
-    <row r="102" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8506,7 +8767,7 @@
       <c r="BO102" s="2"/>
       <c r="BP102" s="2"/>
     </row>
-    <row r="103" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8576,7 +8837,7 @@
       <c r="BO103" s="2"/>
       <c r="BP103" s="2"/>
     </row>
-    <row r="104" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8646,7 +8907,7 @@
       <c r="BO104" s="2"/>
       <c r="BP104" s="2"/>
     </row>
-    <row r="105" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8716,7 +8977,7 @@
       <c r="BO105" s="2"/>
       <c r="BP105" s="2"/>
     </row>
-    <row r="106" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8786,7 +9047,7 @@
       <c r="BO106" s="2"/>
       <c r="BP106" s="2"/>
     </row>
-    <row r="107" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8856,7 +9117,7 @@
       <c r="BO107" s="2"/>
       <c r="BP107" s="2"/>
     </row>
-    <row r="108" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8925,7 +9186,7 @@
       <c r="BN108" s="2"/>
       <c r="BO108" s="2"/>
     </row>
-    <row r="109" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -8994,7 +9255,7 @@
       <c r="BN109" s="2"/>
       <c r="BO109" s="2"/>
     </row>
-    <row r="110" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -9063,7 +9324,7 @@
       <c r="BN110" s="2"/>
       <c r="BO110" s="2"/>
     </row>
-    <row r="111" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -9132,7 +9393,7 @@
       <c r="BN111" s="2"/>
       <c r="BO111" s="2"/>
     </row>
-    <row r="112" spans="1:68" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -9201,7 +9462,7 @@
       <c r="BN112" s="2"/>
       <c r="BO112" s="2"/>
     </row>
-    <row r="113" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9270,7 +9531,7 @@
       <c r="BN113" s="2"/>
       <c r="BO113" s="2"/>
     </row>
-    <row r="114" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9339,7 +9600,7 @@
       <c r="BN114" s="2"/>
       <c r="BO114" s="2"/>
     </row>
-    <row r="115" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -9408,7 +9669,7 @@
       <c r="BN115" s="2"/>
       <c r="BO115" s="2"/>
     </row>
-    <row r="116" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -9477,7 +9738,7 @@
       <c r="BN116" s="2"/>
       <c r="BO116" s="2"/>
     </row>
-    <row r="117" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -9546,7 +9807,7 @@
       <c r="BN117" s="2"/>
       <c r="BO117" s="2"/>
     </row>
-    <row r="118" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -9615,7 +9876,7 @@
       <c r="BN118" s="2"/>
       <c r="BO118" s="2"/>
     </row>
-    <row r="119" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -9684,7 +9945,7 @@
       <c r="BN119" s="2"/>
       <c r="BO119" s="2"/>
     </row>
-    <row r="120" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -9753,7 +10014,7 @@
       <c r="BN120" s="2"/>
       <c r="BO120" s="2"/>
     </row>
-    <row r="121" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -9822,7 +10083,7 @@
       <c r="BN121" s="2"/>
       <c r="BO121" s="2"/>
     </row>
-    <row r="122" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -9891,7 +10152,7 @@
       <c r="BN122" s="2"/>
       <c r="BO122" s="2"/>
     </row>
-    <row r="123" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -9960,7 +10221,7 @@
       <c r="BN123" s="2"/>
       <c r="BO123" s="2"/>
     </row>
-    <row r="124" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -10029,7 +10290,7 @@
       <c r="BN124" s="2"/>
       <c r="BO124" s="2"/>
     </row>
-    <row r="125" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -10098,7 +10359,7 @@
       <c r="BN125" s="2"/>
       <c r="BO125" s="2"/>
     </row>
-    <row r="126" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -10167,7 +10428,7 @@
       <c r="BN126" s="2"/>
       <c r="BO126" s="2"/>
     </row>
-    <row r="127" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -10236,7 +10497,7 @@
       <c r="BN127" s="2"/>
       <c r="BO127" s="2"/>
     </row>
-    <row r="128" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -10305,7 +10566,7 @@
       <c r="BN128" s="2"/>
       <c r="BO128" s="2"/>
     </row>
-    <row r="129" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -10374,7 +10635,7 @@
       <c r="BN129" s="2"/>
       <c r="BO129" s="2"/>
     </row>
-    <row r="130" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -10443,7 +10704,7 @@
       <c r="BN130" s="2"/>
       <c r="BO130" s="2"/>
     </row>
-    <row r="131" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -10512,7 +10773,7 @@
       <c r="BN131" s="2"/>
       <c r="BO131" s="2"/>
     </row>
-    <row r="132" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -10581,7 +10842,7 @@
       <c r="BN132" s="2"/>
       <c r="BO132" s="2"/>
     </row>
-    <row r="133" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -10650,7 +10911,7 @@
       <c r="BN133" s="2"/>
       <c r="BO133" s="2"/>
     </row>
-    <row r="134" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -10719,7 +10980,7 @@
       <c r="BN134" s="2"/>
       <c r="BO134" s="2"/>
     </row>
-    <row r="135" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -10788,7 +11049,7 @@
       <c r="BN135" s="2"/>
       <c r="BO135" s="2"/>
     </row>
-    <row r="136" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -10857,7 +11118,7 @@
       <c r="BN136" s="2"/>
       <c r="BO136" s="2"/>
     </row>
-    <row r="137" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -10926,7 +11187,7 @@
       <c r="BN137" s="2"/>
       <c r="BO137" s="2"/>
     </row>
-    <row r="138" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -10995,7 +11256,7 @@
       <c r="BN138" s="2"/>
       <c r="BO138" s="2"/>
     </row>
-    <row r="139" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -11064,7 +11325,7 @@
       <c r="BN139" s="2"/>
       <c r="BO139" s="2"/>
     </row>
-    <row r="140" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -11133,7 +11394,7 @@
       <c r="BN140" s="2"/>
       <c r="BO140" s="2"/>
     </row>
-    <row r="141" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -11202,7 +11463,7 @@
       <c r="BN141" s="2"/>
       <c r="BO141" s="2"/>
     </row>
-    <row r="142" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -11271,7 +11532,7 @@
       <c r="BN142" s="2"/>
       <c r="BO142" s="2"/>
     </row>
-    <row r="143" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -11340,7 +11601,7 @@
       <c r="BN143" s="2"/>
       <c r="BO143" s="2"/>
     </row>
-    <row r="144" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -11409,7 +11670,7 @@
       <c r="BN144" s="2"/>
       <c r="BO144" s="2"/>
     </row>
-    <row r="145" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -11478,7 +11739,7 @@
       <c r="BN145" s="2"/>
       <c r="BO145" s="2"/>
     </row>
-    <row r="146" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -11547,7 +11808,7 @@
       <c r="BN146" s="2"/>
       <c r="BO146" s="2"/>
     </row>
-    <row r="147" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -11616,7 +11877,7 @@
       <c r="BN147" s="2"/>
       <c r="BO147" s="2"/>
     </row>
-    <row r="148" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -11685,7 +11946,7 @@
       <c r="BN148" s="2"/>
       <c r="BO148" s="2"/>
     </row>
-    <row r="149" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -11754,7 +12015,7 @@
       <c r="BN149" s="2"/>
       <c r="BO149" s="2"/>
     </row>
-    <row r="150" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -11823,7 +12084,7 @@
       <c r="BN150" s="2"/>
       <c r="BO150" s="2"/>
     </row>
-    <row r="151" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -11892,7 +12153,7 @@
       <c r="BN151" s="2"/>
       <c r="BO151" s="2"/>
     </row>
-    <row r="152" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -11961,7 +12222,7 @@
       <c r="BN152" s="2"/>
       <c r="BO152" s="2"/>
     </row>
-    <row r="153" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -12030,7 +12291,7 @@
       <c r="BN153" s="2"/>
       <c r="BO153" s="2"/>
     </row>
-    <row r="154" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -12099,7 +12360,7 @@
       <c r="BN154" s="2"/>
       <c r="BO154" s="2"/>
     </row>
-    <row r="155" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -12168,7 +12429,7 @@
       <c r="BN155" s="2"/>
       <c r="BO155" s="2"/>
     </row>
-    <row r="156" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -12237,7 +12498,7 @@
       <c r="BN156" s="2"/>
       <c r="BO156" s="2"/>
     </row>
-    <row r="157" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -12306,7 +12567,7 @@
       <c r="BN157" s="2"/>
       <c r="BO157" s="2"/>
     </row>
-    <row r="158" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -12375,7 +12636,7 @@
       <c r="BN158" s="2"/>
       <c r="BO158" s="2"/>
     </row>
-    <row r="159" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -12444,7 +12705,7 @@
       <c r="BN159" s="2"/>
       <c r="BO159" s="2"/>
     </row>
-    <row r="160" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -12513,7 +12774,7 @@
       <c r="BN160" s="2"/>
       <c r="BO160" s="2"/>
     </row>
-    <row r="161" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -12582,7 +12843,7 @@
       <c r="BN161" s="2"/>
       <c r="BO161" s="2"/>
     </row>
-    <row r="162" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -12651,7 +12912,7 @@
       <c r="BN162" s="2"/>
       <c r="BO162" s="2"/>
     </row>
-    <row r="163" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -12720,7 +12981,7 @@
       <c r="BN163" s="2"/>
       <c r="BO163" s="2"/>
     </row>
-    <row r="164" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -12789,7 +13050,7 @@
       <c r="BN164" s="2"/>
       <c r="BO164" s="2"/>
     </row>
-    <row r="165" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -12858,7 +13119,7 @@
       <c r="BN165" s="2"/>
       <c r="BO165" s="2"/>
     </row>
-    <row r="166" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -12927,7 +13188,7 @@
       <c r="BN166" s="2"/>
       <c r="BO166" s="2"/>
     </row>
-    <row r="167" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -12996,7 +13257,7 @@
       <c r="BN167" s="2"/>
       <c r="BO167" s="2"/>
     </row>
-    <row r="168" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -13065,7 +13326,7 @@
       <c r="BN168" s="2"/>
       <c r="BO168" s="2"/>
     </row>
-    <row r="169" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -13134,7 +13395,7 @@
       <c r="BN169" s="2"/>
       <c r="BO169" s="2"/>
     </row>
-    <row r="170" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -13203,7 +13464,7 @@
       <c r="BN170" s="2"/>
       <c r="BO170" s="2"/>
     </row>
-    <row r="171" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -13272,7 +13533,7 @@
       <c r="BN171" s="2"/>
       <c r="BO171" s="2"/>
     </row>
-    <row r="172" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -13341,7 +13602,7 @@
       <c r="BN172" s="2"/>
       <c r="BO172" s="2"/>
     </row>
-    <row r="173" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -13410,7 +13671,7 @@
       <c r="BN173" s="2"/>
       <c r="BO173" s="2"/>
     </row>
-    <row r="174" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -13479,7 +13740,7 @@
       <c r="BN174" s="2"/>
       <c r="BO174" s="2"/>
     </row>
-    <row r="175" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -13548,7 +13809,7 @@
       <c r="BN175" s="2"/>
       <c r="BO175" s="2"/>
     </row>
-    <row r="176" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -13617,7 +13878,7 @@
       <c r="BN176" s="2"/>
       <c r="BO176" s="2"/>
     </row>
-    <row r="177" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -13686,7 +13947,7 @@
       <c r="BN177" s="2"/>
       <c r="BO177" s="2"/>
     </row>
-    <row r="178" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -13755,7 +14016,7 @@
       <c r="BN178" s="2"/>
       <c r="BO178" s="2"/>
     </row>
-    <row r="179" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -13824,7 +14085,7 @@
       <c r="BN179" s="2"/>
       <c r="BO179" s="2"/>
     </row>
-    <row r="180" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -13893,7 +14154,7 @@
       <c r="BN180" s="2"/>
       <c r="BO180" s="2"/>
     </row>
-    <row r="181" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -13962,7 +14223,7 @@
       <c r="BN181" s="2"/>
       <c r="BO181" s="2"/>
     </row>
-    <row r="182" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -14031,7 +14292,7 @@
       <c r="BN182" s="2"/>
       <c r="BO182" s="2"/>
     </row>
-    <row r="183" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -14100,7 +14361,7 @@
       <c r="BN183" s="2"/>
       <c r="BO183" s="2"/>
     </row>
-    <row r="184" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -14169,7 +14430,7 @@
       <c r="BN184" s="2"/>
       <c r="BO184" s="2"/>
     </row>
-    <row r="185" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -14238,7 +14499,7 @@
       <c r="BN185" s="2"/>
       <c r="BO185" s="2"/>
     </row>
-    <row r="186" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -14307,7 +14568,7 @@
       <c r="BN186" s="2"/>
       <c r="BO186" s="2"/>
     </row>
-    <row r="187" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -14376,7 +14637,7 @@
       <c r="BN187" s="2"/>
       <c r="BO187" s="2"/>
     </row>
-    <row r="188" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -14445,7 +14706,7 @@
       <c r="BN188" s="2"/>
       <c r="BO188" s="2"/>
     </row>
-    <row r="189" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -14514,7 +14775,7 @@
       <c r="BN189" s="2"/>
       <c r="BO189" s="2"/>
     </row>
-    <row r="190" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -14583,7 +14844,7 @@
       <c r="BN190" s="2"/>
       <c r="BO190" s="2"/>
     </row>
-    <row r="191" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -14652,7 +14913,7 @@
       <c r="BN191" s="2"/>
       <c r="BO191" s="2"/>
     </row>
-    <row r="192" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -14721,7 +14982,7 @@
       <c r="BN192" s="2"/>
       <c r="BO192" s="2"/>
     </row>
-    <row r="193" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -14790,7 +15051,7 @@
       <c r="BN193" s="2"/>
       <c r="BO193" s="2"/>
     </row>
-    <row r="194" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -14859,7 +15120,7 @@
       <c r="BN194" s="2"/>
       <c r="BO194" s="2"/>
     </row>
-    <row r="195" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -14928,7 +15189,7 @@
       <c r="BN195" s="2"/>
       <c r="BO195" s="2"/>
     </row>
-    <row r="196" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -14997,7 +15258,7 @@
       <c r="BN196" s="2"/>
       <c r="BO196" s="2"/>
     </row>
-    <row r="197" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -15066,7 +15327,7 @@
       <c r="BN197" s="2"/>
       <c r="BO197" s="2"/>
     </row>
-    <row r="198" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -15135,7 +15396,7 @@
       <c r="BN198" s="2"/>
       <c r="BO198" s="2"/>
     </row>
-    <row r="199" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -15204,7 +15465,7 @@
       <c r="BN199" s="2"/>
       <c r="BO199" s="2"/>
     </row>
-    <row r="200" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -15273,7 +15534,7 @@
       <c r="BN200" s="2"/>
       <c r="BO200" s="2"/>
     </row>
-    <row r="201" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -15342,7 +15603,7 @@
       <c r="BN201" s="2"/>
       <c r="BO201" s="2"/>
     </row>
-    <row r="202" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -15411,7 +15672,7 @@
       <c r="BN202" s="2"/>
       <c r="BO202" s="2"/>
     </row>
-    <row r="203" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -15480,7 +15741,7 @@
       <c r="BN203" s="2"/>
       <c r="BO203" s="2"/>
     </row>
-    <row r="204" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -15549,7 +15810,7 @@
       <c r="BN204" s="2"/>
       <c r="BO204" s="2"/>
     </row>
-    <row r="205" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -15618,7 +15879,7 @@
       <c r="BN205" s="2"/>
       <c r="BO205" s="2"/>
     </row>
-    <row r="206" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -15687,7 +15948,7 @@
       <c r="BN206" s="2"/>
       <c r="BO206" s="2"/>
     </row>
-    <row r="207" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -15756,7 +16017,7 @@
       <c r="BN207" s="2"/>
       <c r="BO207" s="2"/>
     </row>
-    <row r="208" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -15825,7 +16086,7 @@
       <c r="BN208" s="2"/>
       <c r="BO208" s="2"/>
     </row>
-    <row r="209" spans="54:67" x14ac:dyDescent="0.3">
+    <row r="209" spans="54:67" x14ac:dyDescent="0.25">
       <c r="BB209" s="2"/>
       <c r="BC209" s="2"/>
       <c r="BD209" s="2"/>
@@ -15856,10 +16117,10 @@
     <hyperlink ref="C37:F38" r:id="rId1" display="Comece agora | Grátis"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Daily Schedule Excel Template-PT.xlsx
+++ b/Daily Schedule Excel Template-PT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comercial\Desktop\cronograma de estudo mateus\planilha-agenda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mateus\agenda\planilha-agenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EFE1A2-977A-427C-B151-4B543D194E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9975" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
@@ -519,7 +520,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -546,26 +547,25 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -580,7 +580,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -825,14 +825,20 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>214630</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>337095</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>482599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -865,14 +871,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -882,7 +888,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -912,7 +918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -945,14 +957,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -962,7 +974,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -985,14 +997,20 @@
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1626465</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1245465</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3"/>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1025,17 +1043,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A3:H32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:H32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A3:H32" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Column1" dataDxfId="7"/>
-    <tableColumn id="2" name="Column2" dataDxfId="6"/>
-    <tableColumn id="3" name="Column3" dataDxfId="5"/>
-    <tableColumn id="4" name="Column4" dataDxfId="4"/>
-    <tableColumn id="5" name="Column5" dataDxfId="3"/>
-    <tableColumn id="6" name="Column6" dataDxfId="2"/>
-    <tableColumn id="7" name="Column7" dataDxfId="1"/>
-    <tableColumn id="8" name="Column8" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1362,29 +1380,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:BP209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H32" sqref="A1:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1517,19 +1540,19 @@
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1597,16 +1620,16 @@
       <c r="BP3" s="2"/>
     </row>
     <row r="4" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21">
+      <c r="A4" s="20">
         <v>0.29166666666666669</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1669,16 +1692,16 @@
       <c r="BP4" s="2"/>
     </row>
     <row r="5" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>0.3125</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1741,16 +1764,16 @@
       <c r="BP5" s="2"/>
     </row>
     <row r="6" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="20">
         <v>0.33333333333333331</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1813,16 +1836,16 @@
       <c r="BP6" s="2"/>
     </row>
     <row r="7" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>0.35416666666666702</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1885,16 +1908,16 @@
       <c r="BP7" s="2"/>
     </row>
     <row r="8" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="20">
         <v>0.375</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1957,18 +1980,18 @@
       <c r="BP8" s="2"/>
     </row>
     <row r="9" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="22">
+      <c r="A9" s="21">
         <v>0.39583333333333398</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2031,16 +2054,16 @@
       <c r="BP9" s="2"/>
     </row>
     <row r="10" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>0.41666666666666702</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2103,16 +2126,16 @@
       <c r="BP10" s="2"/>
     </row>
     <row r="11" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="21">
         <v>0.4375</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="24"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2175,16 +2198,16 @@
       <c r="BP11" s="2"/>
     </row>
     <row r="12" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="20">
         <v>0.45833333333333398</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2247,16 +2270,16 @@
       <c r="BP12" s="2"/>
     </row>
     <row r="13" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>0.47916666666666702</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2319,18 +2342,18 @@
       <c r="BP13" s="2"/>
     </row>
     <row r="14" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="20">
         <v>0.5</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2393,15 +2416,15 @@
       <c r="BP14" s="2"/>
     </row>
     <row r="15" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>0.52083333333333304</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="5"/>
@@ -2467,19 +2490,19 @@
       <c r="BP15" s="2"/>
     </row>
     <row r="16" spans="1:68" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="20">
         <v>0.54166666666666696</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="5"/>
@@ -2545,23 +2568,23 @@
       <c r="BP16" s="2"/>
     </row>
     <row r="17" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>0.5625</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="30" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="5"/>
@@ -2627,23 +2650,23 @@
       <c r="BP17" s="2"/>
     </row>
     <row r="18" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>0.58333333333333304</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="30" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="5"/>
@@ -2709,23 +2732,23 @@
       <c r="BP18" s="2"/>
     </row>
     <row r="19" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
+      <c r="A19" s="21">
         <v>0.60416666666666696</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="5"/>
@@ -2791,23 +2814,23 @@
       <c r="BP19" s="2"/>
     </row>
     <row r="20" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>0.625</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="5"/>
@@ -2873,23 +2896,23 @@
       <c r="BP20" s="2"/>
     </row>
     <row r="21" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="21">
         <v>0.64583333333333304</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>26</v>
       </c>
       <c r="H21" s="5"/>
@@ -2955,23 +2978,23 @@
       <c r="BP21" s="2"/>
     </row>
     <row r="22" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>0.66666666666666696</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="5"/>
@@ -3037,23 +3060,23 @@
       <c r="BP22" s="2"/>
     </row>
     <row r="23" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <v>0.6875</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="5"/>
@@ -3119,23 +3142,23 @@
       <c r="BP23" s="2"/>
     </row>
     <row r="24" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>0.70833333333333304</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="30" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="5"/>
@@ -3201,23 +3224,23 @@
       <c r="BP24" s="2"/>
     </row>
     <row r="25" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="21">
         <v>0.72916666666666696</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="31" t="s">
+      <c r="F25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="5"/>
@@ -3283,23 +3306,23 @@
       <c r="BP25" s="2"/>
     </row>
     <row r="26" spans="1:68" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="20">
         <v>0.75</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="28" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="5"/>
@@ -3365,23 +3388,23 @@
       <c r="BP26" s="2"/>
     </row>
     <row r="27" spans="1:68" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>0.77083333333333304</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H27" s="5"/>
@@ -3447,23 +3470,23 @@
       <c r="BP27" s="2"/>
     </row>
     <row r="28" spans="1:68" ht="36" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="20">
         <v>0.79166666666666696</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="5"/>
@@ -3529,23 +3552,23 @@
       <c r="BP28" s="2"/>
     </row>
     <row r="29" spans="1:68" ht="36" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
+      <c r="A29" s="21">
         <v>0.8125</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="5"/>
@@ -3611,23 +3634,23 @@
       <c r="BP29" s="2"/>
     </row>
     <row r="30" spans="1:68" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="A30" s="20">
         <v>0.83333333333333304</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H30" s="5"/>
@@ -3693,23 +3716,23 @@
       <c r="BP30" s="2"/>
     </row>
     <row r="31" spans="1:68" ht="36" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="21">
         <v>0.85416666666666696</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H31" s="5"/>
@@ -3775,23 +3798,23 @@
       <c r="BP31" s="2"/>
     </row>
     <row r="32" spans="1:68" ht="36" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="A32" s="22">
         <v>0.875</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="28" t="s">
         <v>29</v>
       </c>
       <c r="H32" s="9"/>
@@ -3999,12 +4022,12 @@
     <row r="35" spans="1:68" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="17"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -4070,10 +4093,10 @@
     <row r="36" spans="1:68" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="11"/>
@@ -4140,12 +4163,12 @@
     <row r="37" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="11"/>
@@ -4212,10 +4235,10 @@
     <row r="38" spans="1:68" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="17"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="11"/>
@@ -4282,10 +4305,10 @@
     <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="2"/>
@@ -4352,10 +4375,10 @@
     <row r="40" spans="1:68" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="2"/>
@@ -4565,10 +4588,10 @@
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="37"/>
+      <c r="G43" s="36"/>
       <c r="H43" s="15"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -4637,8 +4660,8 @@
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="15"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -4707,8 +4730,8 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
       <c r="H45" s="16"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -4777,8 +4800,8 @@
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
       <c r="H46" s="15"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -4847,8 +4870,8 @@
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
       <c r="H47" s="15"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -4917,8 +4940,8 @@
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="15"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -4987,8 +5010,8 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
       <c r="H49" s="15"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -5057,8 +5080,8 @@
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="15"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -5127,8 +5150,8 @@
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
       <c r="H51" s="15"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -5197,8 +5220,8 @@
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
       <c r="H52" s="15"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -5267,8 +5290,8 @@
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="15"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -5337,8 +5360,8 @@
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="15"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -5477,8 +5500,8 @@
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
       <c r="H56" s="15"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -5617,10 +5640,10 @@
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
-      <c r="F58" s="41" t="s">
+      <c r="F58" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="41"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="15"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -5689,8 +5712,8 @@
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="15"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -5759,8 +5782,8 @@
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
       <c r="H60" s="15"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -5829,8 +5852,8 @@
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
       <c r="H61" s="15"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -5899,8 +5922,8 @@
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
       <c r="H62" s="15"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -5969,8 +5992,8 @@
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="15"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -6039,12 +6062,12 @@
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="32" t="s">
+      <c r="F64" s="18"/>
+      <c r="G64" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -6111,8 +6134,8 @@
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="20" t="s">
+      <c r="F65" s="15"/>
+      <c r="G65" s="19" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="15"/>
@@ -16114,10 +16137,10 @@
     <mergeCell ref="F58:G61"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C37:F38" r:id="rId1" display="Comece agora | Grátis"/>
+    <hyperlink ref="C37:F38" r:id="rId1" display="Comece agora | Grátis" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup scale="10" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <drawing r:id="rId3"/>
   <tableParts count="1">
     <tablePart r:id="rId4"/>
